--- a/src/test/resources/TestData - NinzaCRM(Shama).xlsx
+++ b/src/test/resources/TestData - NinzaCRM(Shama).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819231F9-9E2D-437A-9E52-04B3CF1CDBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3250D0AB-3747-40CA-A505-ECFA4E5629E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="147">
   <si>
     <t>TC_ID</t>
   </si>
@@ -453,6 +453,15 @@
   </si>
   <si>
     <t>TargetSize</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7890345678</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -515,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -533,6 +542,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -818,7 +830,7 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,8 +901,8 @@
       <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3">
-        <v>2</v>
+      <c r="D2" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>5</v>
@@ -904,14 +916,14 @@
       <c r="H2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="3">
-        <v>8971456123</v>
+      <c r="I2" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="3">
-        <v>2</v>
+      <c r="K2" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>

--- a/src/test/resources/TestData - NinzaCRM(Shama).xlsx
+++ b/src/test/resources/TestData - NinzaCRM(Shama).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3250D0AB-3747-40CA-A505-ECFA4E5629E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C4135B-37A4-4084-A38E-AE53C3614677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="149">
   <si>
     <t>TC_ID</t>
   </si>
@@ -462,6 +462,12 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>9878654324</t>
   </si>
 </sst>
 </file>
@@ -829,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,20 +985,21 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1021,20 +1028,21 @@
       <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="3">
-        <v>9876567897</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="3"/>
+      <c r="H5" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>

--- a/src/test/resources/TestData - NinzaCRM(Shama).xlsx
+++ b/src/test/resources/TestData - NinzaCRM(Shama).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C4135B-37A4-4084-A38E-AE53C3614677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7712AD60-2B3B-41DB-9E56-E32CA15529FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Integration" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="160">
   <si>
     <t>TC_ID</t>
   </si>
@@ -468,6 +468,39 @@
   </si>
   <si>
     <t>9878654324</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TC10_Product</t>
+  </si>
+  <si>
+    <t>CreateProduct</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Propobality</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>18-09-2025</t>
+  </si>
+  <si>
+    <t>789012</t>
+  </si>
+  <si>
+    <t>7869503</t>
   </si>
 </sst>
 </file>
@@ -833,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,11 +1033,6 @@
       <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1043,11 +1071,6 @@
       <c r="H5" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -1069,7 +1092,9 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1099,7 +1124,9 @@
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1110,29 +1137,35 @@
         <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1153,7 +1186,9 @@
       <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1164,29 +1199,35 @@
         <v>32</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="K8" s="3">
-        <v>5000</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -2461,6 +2502,42 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2470,8 +2547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2494,34 +2571,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>124</v>
@@ -2581,38 +2658,38 @@
       <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="3">
-        <v>9876567890</v>
+      <c r="D2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>122</v>
+        <v>33</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="3">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3">
-        <v>75000</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>77</v>
+      <c r="J2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="N2" s="5">
-        <v>45918</v>
+      <c r="N2" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>99</v>
@@ -2626,8 +2703,8 @@
       <c r="R2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="S2" s="3">
-        <v>731204</v>
+      <c r="S2" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>102</v>
@@ -2644,8 +2721,8 @@
       <c r="X2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Y2" s="3">
-        <v>731204</v>
+      <c r="Y2" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>102</v>
